--- a/Manual_Testing/Assessments/Assessment.xlsx
+++ b/Manual_Testing/Assessments/Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Testing\Manual_Testing\Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AB8173-28A5-4CD9-981E-15F7DC4D504C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F201CC3E-2BB0-410B-B258-5F537852B6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9F358713-8611-49A3-BE34-446179817E70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9F358713-8611-49A3-BE34-446179817E70}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>Test Scenario Id</t>
   </si>
@@ -153,12 +153,6 @@
     <t>TC_08</t>
   </si>
   <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
@@ -205,13 +199,155 @@
   </si>
   <si>
     <t>Defect_01</t>
+  </si>
+  <si>
+    <t>Verify that the Registration form contains Username, First Name, Last Name, Password, Confirm Password, Email Id, Phone number, Date of birth, Gender, Location, Terms of use, Submit, Login (If you already have an account)</t>
+  </si>
+  <si>
+    <t>Verify that tab functionality is working properly or not</t>
+  </si>
+  <si>
+    <t>Verify that all the fields such as Username, First Name, Last Name, Password and other fields have a valid placeholder</t>
+  </si>
+  <si>
+    <t>Verify that all the required/mandatory fields are marked with * against the field</t>
+  </si>
+  <si>
+    <t>Verify that clicking on submit button after entering all the mandatory fields, submits the data to the server</t>
+  </si>
+  <si>
+    <t>Verify that system generates a validation message when clicking on submit button without filling all the mandatory fields.</t>
+  </si>
+  <si>
+    <t>Verify that entering blank spaces on mandatory fields lead to validation error</t>
+  </si>
+  <si>
+    <t>Verify that clicking on submit button by leaving optional fields, submits the data to the server without any validation error</t>
+  </si>
+  <si>
+    <t>Verify that the validation of email field by entering incorrect email id</t>
+  </si>
+  <si>
+    <t>Verify whether the password and confirm password are same or not</t>
+  </si>
+  <si>
+    <t>Verify that the validation of numeric fields by entering alphabets and characters</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>Verify that all the required fields – username, email, password, confirm password, etc are present on the registration page.</t>
+  </si>
+  <si>
+    <t>1) internet should be in working condition
+2) valid URL</t>
+  </si>
+  <si>
+    <t>1)http://www.amazon.com
+2)Press enter
+3))Click on account logo
+4)Click on create your amazon account
+5)Click on continue button without filling any data</t>
+  </si>
+  <si>
+    <t>1)http://www.amazon.com
+2)Press enter
+3))Click on account logo
+4)Click on create your amazon account</t>
+  </si>
+  <si>
+    <t>All the required fields will be present</t>
+  </si>
+  <si>
+    <t>As per the expected result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Required fields will be indicated with red marks</t>
+  </si>
+  <si>
+    <t>Verify that if a user tries to register an existing username then an error message should get displayed.</t>
+  </si>
+  <si>
+    <t>Verify that clicking submits button after entering all the required fields, submits the data to the server.</t>
+  </si>
+  <si>
+    <t>Check validation on numeric fields by entering alphabets and special characters.</t>
+  </si>
+  <si>
+    <t>Check the upper limit of the different textbox fields.</t>
+  </si>
+  <si>
+    <t>Verifying with correct data</t>
+  </si>
+  <si>
+    <t>1)http://www.amazon.com
+2)Press enter
+3))Click on account logo
+4)Click on create your amazon account
+5)Fill the details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message will be displayed </t>
+  </si>
+  <si>
+    <t>Required/mandatory fields will be marked in red colour</t>
+  </si>
+  <si>
+    <t>Verify that the required/mandatory fields are marked in red colour</t>
+  </si>
+  <si>
+    <t>1)http://www.amazon.com
+2)Press enter
+3))Click on account logo
+4)Click on create your amazon account
+5)Fill the details
+6)Click on submit button</t>
+  </si>
+  <si>
+    <t>Response will be submitted</t>
+  </si>
+  <si>
+    <t>Validation will be correct</t>
+  </si>
+  <si>
+    <t>1)http://www.amazon.com
+2)Press enter
+3))Click on account logo
+4)Click on create your amazon account
+5)Fill the details
+6)Click on continue button</t>
+  </si>
+  <si>
+    <t>Registration will be successful</t>
+  </si>
+  <si>
+    <t>Your Name : Null
+Mobile Number or Email : Null
+Password : Null
+Confirm Password : Null</t>
+  </si>
+  <si>
+    <t>Your Name : Vikas Vaghela
+Mobile Number or Email : vikascsc99@gmail.com
+Password : Vikas2011&amp;
+Confirm Password : Vikas2011&amp;</t>
+  </si>
+  <si>
+    <t>Without filling any data click on continue button</t>
+  </si>
+  <si>
+    <t>Textbox will accept the input as per the limit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +358,12 @@
     <font>
       <sz val="12"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,16 +395,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,74 +727,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009F049A-81A3-4460-8203-D915CBB7FC75}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -656,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E602B5-0542-46CE-9371-44B04CC816E8}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,153 +876,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>45413</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A91AAE-24C7-4532-9DD6-A4BF946020C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -843,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD08BD61-806B-460B-B001-FB1A6B00E469}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -865,63 +1292,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Manual_Testing/Assessments/Assessment.xlsx
+++ b/Manual_Testing/Assessments/Assessment.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Testing\Manual_Testing\Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F201CC3E-2BB0-410B-B258-5F537852B6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0FB05-257F-41E3-8F85-036EB473BAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9F358713-8611-49A3-BE34-446179817E70}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
-    <sheet name="Responsive Testing" sheetId="3" r:id="rId3"/>
-    <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
+    <sheet name="Defect Report" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="123">
   <si>
     <t>Test Scenario Id</t>
   </si>
@@ -341,6 +340,111 @@
   </si>
   <si>
     <t>Textbox will accept the input as per the limit</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Login functionality is not properly working</t>
+  </si>
+  <si>
+    <t>1)http://www.cardekho.com
+2)Press Enter
+3)Click on login icon
+4)Enter the invalid number</t>
+  </si>
+  <si>
+    <t>Application accepts invalid mobile number in login functionality</t>
+  </si>
+  <si>
+    <t>Application should not accept invalid mobile number</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Search bar functionality is not working</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>Search bar</t>
+  </si>
+  <si>
+    <t>1)http://www.cardekho.com
+2)Press Enter
+3)Check search bar with different types of input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search bar should respond properly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search bar is not responding properly </t>
+  </si>
+  <si>
+    <t>Defect_02</t>
+  </si>
+  <si>
+    <t>Defect_03</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>Email is edit text accepts invalid email ids</t>
+  </si>
+  <si>
+    <t>Defect_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There Is no functionality to update mobile number </t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>1)http://www.cardekho.com
+2)Press Enter
+3)Login to your account
+4)Click on profile settings</t>
+  </si>
+  <si>
+    <t>There is no functionality to update mobile number</t>
+  </si>
+  <si>
+    <t>Email Id Edit text is not working in profile section</t>
+  </si>
+  <si>
+    <t>1)http://www.cardekho.com
+2)Press Enter
+3)Login to your account
+4)Click on profile settings
+5)Submit incorrect email id</t>
+  </si>
+  <si>
+    <t>Email Id edit text should not accept invalid email ids</t>
+  </si>
+  <si>
+    <t>There should be functionality to update mobile number in profile section</t>
   </si>
 </sst>
 </file>
@@ -395,9 +499,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -412,6 +515,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,112 +849,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -858,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E602B5-0542-46CE-9371-44B04CC816E8}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -876,378 +985,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>45413</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,23 +1364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A91AAE-24C7-4532-9DD6-A4BF946020C8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD08BD61-806B-460B-B001-FB1A6B00E469}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD08BD61-806B-460B-B001-FB1A6B00E469}">
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1377,7 @@
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" customWidth="1"/>
@@ -1292,64 +1389,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45425</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45425</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45425</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45425</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
